--- a/biology/Médecine/Muscle_digastrique/Muscle_digastrique.xlsx
+++ b/biology/Médecine/Muscle_digastrique/Muscle_digastrique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle digastrique (Musculus digastricus en latin) est un muscle pair de la partie supérieure du cou, sous la mandibule. Il sert de limite topographique entre la région du cou et de la tête.
 Il doit son nom au fait qu'il est composé de deux faisceaux ou ventres (gaster en latin) réunis par un faisceau tendineux. 
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Insertion proximale : il s'insère dans la rainure digastrique sur le processus mastoïde de l'os temporal et au bord antérieur du processus.
 Trajet : il se dirige vers l'avant et forme un arc de cercle ouvert vers le haut en passant, sous forme de tendon et engainé dans une vaginale, dans une série d'anneaux fibreux fixés à l'os hyoïde. Il redevient charnu par la suite, s'orientant vers l'avant et le haut.
@@ -544,7 +558,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le ventre antérieur est innervé par le nerf mylo-hyoïdien, branche collatérale du nerf alvéolaire inférieur (lui même branche collatérale du nerf mandibulaire V3).
 le ventre postérieur est innervé par une branche collatérale du nerf facial née peu après la sortie du foramen stylo-mastoïdien et qui vient innerver le faisceau postérieur dans sa partie moyenne.</t>
@@ -575,7 +591,9 @@
           <t>Action</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait effectuer à la langue un mouvement postéro-inférieur lors de la déglutition.
 Il est aussi abaisseur de la mandibule.
